--- a/data_tables/water_30_04_25.xlsx
+++ b/data_tables/water_30_04_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\pyramid\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF99101E-F6D1-48C5-99AF-D6C53DF82A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAD1D2-1986-4A73-8EA7-A52FF4033193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,11 +174,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT36"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:XFD1048576"/>
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,1254 +471,1426 @@
     <col min="47" max="47" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-    </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>291.92500000000001</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>291.92500000000001</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>291.92500000000001</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>291.92500000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>1055.5999999999999</v>
+      </c>
+      <c r="C2">
+        <v>61631.205999999998</v>
+      </c>
+      <c r="D2">
+        <v>622</v>
+      </c>
+      <c r="E2">
+        <v>36315.47</v>
+      </c>
+      <c r="F2">
+        <v>433.59999999999991</v>
+      </c>
+      <c r="G2">
+        <v>25315.735999999997</v>
+      </c>
+      <c r="H2">
+        <v>1380.8</v>
+      </c>
+      <c r="I2">
+        <v>80618.008000000002</v>
+      </c>
+      <c r="J2">
+        <v>410</v>
+      </c>
+      <c r="K2">
+        <v>23937.850000000002</v>
+      </c>
+      <c r="L2">
+        <v>970.8</v>
+      </c>
+      <c r="M2">
+        <v>56680.157999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>62.64</v>
+      </c>
+      <c r="C3">
+        <v>3657.2364000000002</v>
+      </c>
+      <c r="D3">
+        <v>1198</v>
+      </c>
+      <c r="E3">
+        <v>69945.23000000001</v>
+      </c>
+      <c r="F3">
+        <v>-1135.3599999999999</v>
+      </c>
+      <c r="G3">
+        <v>-66287.993600000016</v>
+      </c>
+      <c r="H3">
+        <v>103.68</v>
+      </c>
+      <c r="I3">
+        <v>6053.3568000000005</v>
+      </c>
+      <c r="J3">
+        <v>942</v>
+      </c>
+      <c r="K3">
+        <v>54998.670000000006</v>
+      </c>
+      <c r="L3">
+        <v>-838.31999999999994</v>
+      </c>
+      <c r="M3">
+        <v>-48945.313200000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>414.72</v>
+      </c>
+      <c r="C4">
+        <v>24213.427200000002</v>
+      </c>
+      <c r="D4">
+        <v>452</v>
+      </c>
+      <c r="E4">
+        <v>26390.020000000004</v>
+      </c>
+      <c r="F4">
+        <v>-37.279999999999973</v>
+      </c>
+      <c r="G4">
+        <v>-2176.5928000000022</v>
+      </c>
+      <c r="H4">
+        <v>694.08</v>
+      </c>
+      <c r="I4">
+        <v>40523.860800000009</v>
+      </c>
+      <c r="J4">
+        <v>388</v>
+      </c>
+      <c r="K4">
+        <v>22653.38</v>
+      </c>
+      <c r="L4">
+        <v>306.08000000000004</v>
+      </c>
+      <c r="M4">
+        <v>17870.480800000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3526.2</v>
+      </c>
+      <c r="C5">
+        <v>205877.18700000001</v>
+      </c>
+      <c r="D5">
+        <v>3498</v>
+      </c>
+      <c r="E5">
+        <v>204230.73</v>
+      </c>
+      <c r="F5">
+        <v>28.199999999999818</v>
+      </c>
+      <c r="G5">
+        <v>1646.4569999999949</v>
+      </c>
+      <c r="H5">
+        <v>3672</v>
+      </c>
+      <c r="I5">
+        <v>214389.72000000003</v>
+      </c>
+      <c r="J5">
+        <v>4518</v>
+      </c>
+      <c r="K5">
+        <v>263783.43000000005</v>
+      </c>
+      <c r="L5">
+        <v>-846</v>
+      </c>
+      <c r="M5">
+        <v>-49393.710000000021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>291.92500000000001</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>291.92500000000001</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>291.92500000000001</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>291.92500000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1055.5999999999999</v>
-      </c>
-      <c r="C3">
-        <v>61631.205999999998</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1055.5999999999999</v>
-      </c>
-      <c r="G3">
-        <v>61631.205999999998</v>
-      </c>
-      <c r="H3">
-        <v>1380.8</v>
-      </c>
-      <c r="I3">
-        <v>80618.008000000002</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1380.8</v>
-      </c>
-      <c r="M3">
-        <v>80618.008000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>62.64</v>
-      </c>
-      <c r="C4">
-        <v>3657.2364000000002</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>62.64</v>
-      </c>
-      <c r="G4">
-        <v>3657.2364000000002</v>
-      </c>
-      <c r="H4">
-        <v>103.68</v>
-      </c>
-      <c r="I4">
-        <v>6053.3568000000005</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>103.68</v>
-      </c>
-      <c r="M4">
-        <v>6053.3568000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>414.72</v>
-      </c>
-      <c r="C5">
-        <v>24213.427200000002</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>414.72</v>
-      </c>
-      <c r="G5">
-        <v>24213.427200000002</v>
-      </c>
-      <c r="H5">
-        <v>694.08</v>
-      </c>
-      <c r="I5">
-        <v>40523.860800000009</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>694.08</v>
-      </c>
-      <c r="M5">
-        <v>40523.860800000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
       <c r="B6">
-        <v>3526.2</v>
+        <v>1794.24</v>
       </c>
       <c r="C6">
-        <v>205877.18700000001</v>
+        <v>104756.70240000001</v>
+      </c>
+      <c r="D6">
+        <v>3210</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>187415.85</v>
       </c>
       <c r="F6">
-        <v>3526.2</v>
+        <v>-1415.76</v>
       </c>
       <c r="G6">
-        <v>205877.18700000001</v>
+        <v>-82659.147599999997</v>
       </c>
       <c r="H6">
-        <v>3672</v>
+        <v>2887.92</v>
       </c>
       <c r="I6">
-        <v>214389.72000000003</v>
+        <v>168611.20920000001</v>
+      </c>
+      <c r="J6">
+        <v>4026</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>235058.01</v>
       </c>
       <c r="L6">
-        <v>3672</v>
+        <v>-1138.08</v>
       </c>
       <c r="M6">
-        <v>214389.72000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
+        <v>-66446.800799999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1794.24</v>
+        <v>16893.36</v>
       </c>
       <c r="C7">
-        <v>104756.70240000001</v>
+        <v>986318.82360000012</v>
+      </c>
+      <c r="D7">
+        <v>15346</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>895976.21000000008</v>
       </c>
       <c r="F7">
-        <v>1794.24</v>
+        <v>1547.3600000000006</v>
       </c>
       <c r="G7">
-        <v>104756.70240000001</v>
+        <v>90342.613600000041</v>
       </c>
       <c r="H7">
-        <v>2887.92</v>
+        <v>21241.439999999999</v>
       </c>
       <c r="I7">
-        <v>168611.20920000001</v>
+        <v>1240181.4743999999</v>
+      </c>
+      <c r="J7">
+        <v>18864</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1101374.6400000001</v>
       </c>
       <c r="L7">
-        <v>2887.92</v>
+        <v>2377.4399999999987</v>
       </c>
       <c r="M7">
-        <v>168611.20920000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
+        <v>138806.83439999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>16893.36</v>
+        <v>14812.56</v>
       </c>
       <c r="C8">
-        <v>986318.82360000012</v>
+        <v>864831.31560000009</v>
+      </c>
+      <c r="D8">
+        <v>14660</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>855924.10000000009</v>
       </c>
       <c r="F8">
-        <v>16893.36</v>
+        <v>152.55999999999949</v>
       </c>
       <c r="G8">
-        <v>986318.82360000012</v>
+        <v>8907.2155999999959</v>
       </c>
       <c r="H8">
-        <v>21241.439999999999</v>
+        <v>20681.28</v>
       </c>
       <c r="I8">
-        <v>1240181.4743999999</v>
+        <v>1207476.5327999999</v>
+      </c>
+      <c r="J8">
+        <v>18808</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1098105.08</v>
       </c>
       <c r="L8">
-        <v>21241.439999999999</v>
+        <v>1873.2799999999988</v>
       </c>
       <c r="M8">
-        <v>1240181.4743999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
+        <v>109371.45279999985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>14812.56</v>
+        <v>14965.78</v>
       </c>
       <c r="C9">
-        <v>864831.31560000009</v>
+        <v>873777.06530000013</v>
+      </c>
+      <c r="D9">
+        <v>28778.86</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1680253.7411000002</v>
       </c>
       <c r="F9">
-        <v>14812.56</v>
+        <v>-13813.08</v>
       </c>
       <c r="G9">
-        <v>864831.31560000009</v>
+        <v>-806476.67580000008</v>
       </c>
       <c r="H9">
-        <v>20681.28</v>
+        <v>21817.439999999999</v>
       </c>
       <c r="I9">
-        <v>1207476.5327999999</v>
+        <v>1273811.2344</v>
+      </c>
+      <c r="J9">
+        <v>19420</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1133836.7000000002</v>
       </c>
       <c r="L9">
-        <v>20681.28</v>
+        <v>2397.4399999999987</v>
       </c>
       <c r="M9">
-        <v>1207476.5327999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
+        <v>139974.53439999977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>14965.78</v>
+        <v>6775.78</v>
       </c>
       <c r="C10">
-        <v>873777.06530000013</v>
+        <v>395603.91529999999</v>
+      </c>
+      <c r="D10">
+        <v>6694</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>390829.19000000006</v>
       </c>
       <c r="F10">
-        <v>14965.78</v>
+        <v>81.779999999999745</v>
       </c>
       <c r="G10">
-        <v>873777.06530000013</v>
+        <v>4774.7252999999328</v>
       </c>
       <c r="H10">
-        <v>21817.439999999999</v>
+        <v>10924.85</v>
       </c>
       <c r="I10">
-        <v>1273811.2344</v>
+        <v>637847.36725000013</v>
+      </c>
+      <c r="J10">
+        <v>8682</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>506898.57000000007</v>
       </c>
       <c r="L10">
-        <v>21817.439999999999</v>
+        <v>2242.8500000000004</v>
       </c>
       <c r="M10">
-        <v>1273811.2344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
+        <v>130948.79725000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>6775.78</v>
+        <v>9303.84</v>
       </c>
       <c r="C11">
-        <v>395603.91529999999</v>
+        <v>543204.69840000011</v>
+      </c>
+      <c r="D11">
+        <v>6540</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>381837.9</v>
       </c>
       <c r="F11">
-        <v>6775.78</v>
+        <v>2763.84</v>
       </c>
       <c r="G11">
-        <v>395603.91529999999</v>
+        <v>161366.79840000009</v>
       </c>
       <c r="H11">
-        <v>10924.85</v>
+        <v>14008.1</v>
       </c>
       <c r="I11">
-        <v>637847.36725000013</v>
+        <v>817862.91850000015</v>
+      </c>
+      <c r="J11">
+        <v>8210</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>479340.85000000003</v>
       </c>
       <c r="L11">
-        <v>10924.85</v>
+        <v>5798.1</v>
       </c>
       <c r="M11">
-        <v>637847.36725000013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
+        <v>338522.06850000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>9303.84</v>
+        <v>9170.7800000000007</v>
       </c>
       <c r="C12">
-        <v>543204.69840000011</v>
+        <v>535435.99030000006</v>
+      </c>
+      <c r="D12">
+        <v>6168</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>360118.68000000005</v>
       </c>
       <c r="F12">
-        <v>9303.84</v>
+        <v>3002.7800000000007</v>
       </c>
       <c r="G12">
-        <v>543204.69840000011</v>
+        <v>175317.31030000001</v>
       </c>
       <c r="H12">
-        <v>14008.1</v>
+        <v>13300.85</v>
       </c>
       <c r="I12">
-        <v>817862.91850000015</v>
+        <v>776570.12725000014</v>
+      </c>
+      <c r="J12">
+        <v>7762</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>453184.37000000005</v>
       </c>
       <c r="L12">
-        <v>14008.1</v>
+        <v>5538.85</v>
       </c>
       <c r="M12">
-        <v>817862.91850000015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
+        <v>323385.75725000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9170.7800000000007</v>
+        <v>1871.4</v>
       </c>
       <c r="C13">
-        <v>535435.99030000006</v>
+        <v>109261.68900000001</v>
+      </c>
+      <c r="D13">
+        <v>1336</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>78002.36</v>
       </c>
       <c r="F13">
-        <v>9170.7800000000007</v>
+        <v>535.40000000000009</v>
       </c>
       <c r="G13">
-        <v>535435.99030000006</v>
+        <v>31259.329000000012</v>
       </c>
       <c r="H13">
-        <v>13300.85</v>
+        <v>2892.24</v>
       </c>
       <c r="I13">
-        <v>776570.12725000014</v>
+        <v>168863.43239999999</v>
+      </c>
+      <c r="J13">
+        <v>2148</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>125410.98000000001</v>
       </c>
       <c r="L13">
-        <v>13300.85</v>
+        <v>744.23999999999978</v>
       </c>
       <c r="M13">
-        <v>776570.12725000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
+        <v>43452.45239999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1871.4</v>
+        <v>5566.39</v>
       </c>
       <c r="C14">
-        <v>109261.68900000001</v>
+        <v>324993.68015000003</v>
+      </c>
+      <c r="D14">
+        <v>3134</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>182978.59000000003</v>
       </c>
       <c r="F14">
-        <v>1871.4</v>
+        <v>2432.3900000000003</v>
       </c>
       <c r="G14">
-        <v>109261.68900000001</v>
+        <v>142015.09015</v>
       </c>
       <c r="H14">
-        <v>2892.24</v>
+        <v>7367.76</v>
       </c>
       <c r="I14">
-        <v>168863.43239999999</v>
+        <v>430166.66760000004</v>
+      </c>
+      <c r="J14">
+        <v>6066</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>354163.41000000003</v>
       </c>
       <c r="L14">
-        <v>2892.24</v>
+        <v>1301.7600000000002</v>
       </c>
       <c r="M14">
-        <v>168863.43239999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
+        <v>76003.257600000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>5566.39</v>
+        <v>1381.32</v>
       </c>
       <c r="C15">
-        <v>324993.68015000003</v>
+        <v>80648.368199999997</v>
+      </c>
+      <c r="D15">
+        <v>524</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>30593.74</v>
       </c>
       <c r="F15">
-        <v>5566.39</v>
+        <v>857.31999999999994</v>
       </c>
       <c r="G15">
-        <v>324993.68015000003</v>
+        <v>50054.628199999992</v>
       </c>
       <c r="H15">
-        <v>7367.76</v>
+        <v>1216.08</v>
       </c>
       <c r="I15">
-        <v>430166.66760000004</v>
+        <v>71000.830799999996</v>
+      </c>
+      <c r="J15">
+        <v>1672</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>97619.720000000016</v>
       </c>
       <c r="L15">
-        <v>7367.76</v>
+        <v>-455.92000000000007</v>
       </c>
       <c r="M15">
-        <v>430166.66760000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
+        <v>-26618.88920000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>1381.32</v>
+        <v>1215</v>
       </c>
       <c r="C16">
-        <v>80648.368199999997</v>
+        <v>70937.775000000009</v>
+      </c>
+      <c r="D16">
+        <v>770</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>44956.450000000004</v>
       </c>
       <c r="F16">
-        <v>1381.32</v>
+        <v>445</v>
       </c>
       <c r="G16">
-        <v>80648.368199999997</v>
+        <v>25981.325000000004</v>
       </c>
       <c r="H16">
-        <v>1216.08</v>
+        <v>1185.4100000000001</v>
       </c>
       <c r="I16">
-        <v>71000.830799999996</v>
+        <v>69210.162850000008</v>
+      </c>
+      <c r="J16">
+        <v>1114</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>65040.890000000007</v>
       </c>
       <c r="L16">
-        <v>1216.08</v>
+        <v>71.410000000000082</v>
       </c>
       <c r="M16">
-        <v>71000.830799999996</v>
+        <v>4169.2728500000012</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>1215</v>
+        <v>7448.4</v>
       </c>
       <c r="C17">
-        <v>70937.775000000009</v>
+        <v>434874.83400000003</v>
+      </c>
+      <c r="D17">
+        <v>6856</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>400287.56000000006</v>
       </c>
       <c r="F17">
-        <v>1215</v>
+        <v>592.39999999999964</v>
       </c>
       <c r="G17">
-        <v>70937.775000000009</v>
+        <v>34587.273999999976</v>
       </c>
       <c r="H17">
-        <v>1185.4100000000001</v>
+        <v>8845.2000000000007</v>
       </c>
       <c r="I17">
-        <v>69210.162850000008</v>
+        <v>516427.00200000009</v>
+      </c>
+      <c r="J17">
+        <v>7650</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>446645.25000000006</v>
       </c>
       <c r="L17">
-        <v>1185.4100000000001</v>
+        <v>1195.2000000000007</v>
       </c>
       <c r="M17">
-        <v>69210.162850000008</v>
+        <v>69781.752000000037</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>7448.4</v>
+        <v>586.66</v>
       </c>
       <c r="C18">
-        <v>434874.83400000003</v>
+        <v>34252.144099999998</v>
+      </c>
+      <c r="D18">
+        <v>582</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>33980.07</v>
       </c>
       <c r="F18">
-        <v>7448.4</v>
+        <v>4.6599999999999682</v>
       </c>
       <c r="G18">
-        <v>434874.83400000003</v>
+        <v>272.074099999998</v>
       </c>
       <c r="H18">
-        <v>8845.2000000000007</v>
+        <v>810</v>
       </c>
       <c r="I18">
-        <v>516427.00200000009</v>
+        <v>47291.850000000006</v>
+      </c>
+      <c r="J18">
+        <v>866</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>50561.41</v>
       </c>
       <c r="L18">
-        <v>8845.2000000000007</v>
+        <v>-56</v>
       </c>
       <c r="M18">
-        <v>516427.00200000009</v>
+        <v>-3269.5599999999977</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>586.66</v>
+        <v>1566</v>
       </c>
       <c r="C19">
-        <v>34252.144099999998</v>
+        <v>91430.91</v>
+      </c>
+      <c r="D19">
+        <v>1380</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>80571.3</v>
       </c>
       <c r="F19">
-        <v>586.66</v>
+        <v>186</v>
       </c>
       <c r="G19">
-        <v>34252.144099999998</v>
+        <v>10859.61</v>
       </c>
       <c r="H19">
-        <v>810</v>
+        <v>2179.44</v>
       </c>
       <c r="I19">
-        <v>47291.850000000006</v>
+        <v>127246.60440000001</v>
+      </c>
+      <c r="J19">
+        <v>2230</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>130198.55000000002</v>
       </c>
       <c r="L19">
-        <v>810</v>
+        <v>-50.559999999999945</v>
       </c>
       <c r="M19">
-        <v>47291.850000000006</v>
+        <v>-2951.9456000000064</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>1566</v>
+        <v>2.16</v>
       </c>
       <c r="C20">
-        <v>91430.91</v>
+        <v>126.11160000000002</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1566</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>91430.91</v>
+        <v>126.11160000000002</v>
       </c>
       <c r="H20">
-        <v>2179.44</v>
+        <v>15.12</v>
       </c>
       <c r="I20">
-        <v>127246.60440000001</v>
+        <v>882.78120000000001</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2179.44</v>
+        <v>15.12</v>
       </c>
       <c r="M20">
-        <v>127246.60440000001</v>
+        <v>882.78120000000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>2.16</v>
+        <v>514.08000000000004</v>
       </c>
       <c r="C21">
-        <v>126.11160000000002</v>
+        <v>30014.560800000007</v>
+      </c>
+      <c r="D21">
+        <v>414</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>24171.390000000003</v>
       </c>
       <c r="F21">
-        <v>2.16</v>
+        <v>100.08000000000004</v>
       </c>
       <c r="G21">
-        <v>126.11160000000002</v>
+        <v>5843.1708000000035</v>
       </c>
       <c r="H21">
-        <v>15.12</v>
+        <v>367.2</v>
       </c>
       <c r="I21">
-        <v>882.78120000000001</v>
+        <v>21438.972000000002</v>
+      </c>
+      <c r="J21">
+        <v>498</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>29075.730000000003</v>
       </c>
       <c r="L21">
-        <v>15.12</v>
+        <v>-130.80000000000001</v>
       </c>
       <c r="M21">
-        <v>882.78120000000001</v>
+        <v>-7636.7580000000016</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>514.08000000000004</v>
+        <v>410.4</v>
       </c>
       <c r="C22">
-        <v>30014.560800000007</v>
+        <v>23961.204000000002</v>
+      </c>
+      <c r="D22">
+        <v>286</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>16698.11</v>
       </c>
       <c r="F22">
-        <v>514.08000000000004</v>
+        <v>124.39999999999998</v>
       </c>
       <c r="G22">
-        <v>30014.560800000007</v>
+        <v>7263.094000000001</v>
       </c>
       <c r="H22">
-        <v>367.2</v>
+        <v>549.5</v>
       </c>
       <c r="I22">
-        <v>21438.972000000002</v>
+        <v>32082.557500000003</v>
+      </c>
+      <c r="J22">
+        <v>420</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24521.7</v>
       </c>
       <c r="L22">
-        <v>367.2</v>
+        <v>129.5</v>
       </c>
       <c r="M22">
-        <v>21438.972000000002</v>
+        <v>7560.8575000000019</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>410.4</v>
+        <v>1379.52</v>
       </c>
       <c r="C23">
-        <v>23961.204000000002</v>
+        <v>80543.275200000004</v>
+      </c>
+      <c r="D23">
+        <v>812</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>47408.62</v>
       </c>
       <c r="F23">
-        <v>410.4</v>
+        <v>567.52</v>
       </c>
       <c r="G23">
-        <v>23961.204000000002</v>
+        <v>33134.655200000001</v>
       </c>
       <c r="H23">
-        <v>549.5</v>
+        <v>1284.19</v>
       </c>
       <c r="I23">
-        <v>32082.557500000003</v>
+        <v>74977.433150000012</v>
+      </c>
+      <c r="J23">
+        <v>1164</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>67960.14</v>
       </c>
       <c r="L23">
-        <v>549.5</v>
+        <v>120.19000000000005</v>
       </c>
       <c r="M23">
-        <v>32082.557500000003</v>
+        <v>7017.2931500000122</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>1379.52</v>
+        <v>813.6</v>
       </c>
       <c r="C24">
-        <v>80543.275200000004</v>
+        <v>47502.036000000007</v>
+      </c>
+      <c r="D24">
+        <v>842</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>49160.170000000006</v>
       </c>
       <c r="F24">
-        <v>1379.52</v>
+        <v>-28.399999999999977</v>
       </c>
       <c r="G24">
-        <v>80543.275200000004</v>
+        <v>-1658.1339999999982</v>
       </c>
       <c r="H24">
-        <v>1284.19</v>
+        <v>1053.6500000000001</v>
       </c>
       <c r="I24">
-        <v>74977.433150000012</v>
+        <v>61517.355250000008</v>
+      </c>
+      <c r="J24">
+        <v>1214</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>70879.39</v>
       </c>
       <c r="L24">
-        <v>1284.19</v>
+        <v>-160.34999999999991</v>
       </c>
       <c r="M24">
-        <v>74977.433150000012</v>
+        <v>-9362.0347499999916</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>813.6</v>
+        <v>799.2</v>
       </c>
       <c r="C25">
-        <v>47502.036000000007</v>
+        <v>46661.292000000009</v>
+      </c>
+      <c r="D25">
+        <v>762</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>44489.37</v>
       </c>
       <c r="F25">
-        <v>813.6</v>
+        <v>37.200000000000045</v>
       </c>
       <c r="G25">
-        <v>47502.036000000007</v>
+        <v>2171.9220000000059</v>
       </c>
       <c r="H25">
-        <v>1053.6500000000001</v>
+        <v>1054.08</v>
       </c>
       <c r="I25">
-        <v>61517.355250000008</v>
+        <v>61542.460800000001</v>
+      </c>
+      <c r="J25">
+        <v>1078</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>62939.030000000006</v>
       </c>
       <c r="L25">
-        <v>1053.6500000000001</v>
+        <v>-23.920000000000073</v>
       </c>
       <c r="M25">
-        <v>61517.355250000008</v>
+        <v>-1396.5692000000054</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>799.2</v>
+        <v>1021.68</v>
       </c>
       <c r="C26">
-        <v>46661.292000000009</v>
+        <v>59650.786800000002</v>
+      </c>
+      <c r="D26">
+        <v>1712</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>99955.12000000001</v>
       </c>
       <c r="F26">
-        <v>799.2</v>
+        <v>-690.32</v>
       </c>
       <c r="G26">
-        <v>46661.292000000009</v>
+        <v>-40304.333200000008</v>
       </c>
       <c r="H26">
-        <v>1054.08</v>
+        <v>2051.2800000000002</v>
       </c>
       <c r="I26">
-        <v>61542.460800000001</v>
+        <v>119763.98280000003</v>
+      </c>
+      <c r="J26">
+        <v>2796</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>163244.46000000002</v>
       </c>
       <c r="L26">
-        <v>1054.08</v>
+        <v>-744.7199999999998</v>
       </c>
       <c r="M26">
-        <v>61542.460800000001</v>
+        <v>-43480.477199999994</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>1021.68</v>
+        <v>3005.42</v>
       </c>
       <c r="C27">
-        <v>59650.786800000002</v>
+        <v>175471.44670000003</v>
+      </c>
+      <c r="D27">
+        <v>2694</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>157289.19</v>
       </c>
       <c r="F27">
-        <v>1021.68</v>
+        <v>311.42000000000007</v>
       </c>
       <c r="G27">
-        <v>59650.786800000002</v>
+        <v>18182.256700000027</v>
       </c>
       <c r="H27">
-        <v>2051.2800000000002</v>
+        <v>3323.52</v>
       </c>
       <c r="I27">
-        <v>119763.98280000003</v>
+        <v>194043.71520000001</v>
+      </c>
+      <c r="J27">
+        <v>2358</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>137671.83000000002</v>
       </c>
       <c r="L27">
-        <v>2051.2800000000002</v>
+        <v>965.52</v>
       </c>
       <c r="M27">
-        <v>119763.98280000003</v>
+        <v>56371.88519999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>3005.42</v>
+        <v>504.58</v>
       </c>
       <c r="C28">
-        <v>175471.44670000003</v>
+        <v>29459.903300000002</v>
+      </c>
+      <c r="D28">
+        <v>472</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>27557.72</v>
       </c>
       <c r="F28">
-        <v>3005.42</v>
+        <v>32.579999999999984</v>
       </c>
       <c r="G28">
-        <v>175471.44670000003</v>
+        <v>1902.1833000000006</v>
       </c>
       <c r="H28">
-        <v>3323.52</v>
+        <v>838.8</v>
       </c>
       <c r="I28">
-        <v>194043.71520000001</v>
+        <v>48973.338000000003</v>
+      </c>
+      <c r="J28">
+        <v>996</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>58151.460000000006</v>
       </c>
       <c r="L28">
-        <v>3323.52</v>
+        <v>-157.20000000000005</v>
       </c>
       <c r="M28">
-        <v>194043.71520000001</v>
+        <v>-9178.122000000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>504.58</v>
+        <v>1577.52</v>
       </c>
       <c r="C29">
-        <v>29459.903300000002</v>
+        <v>92103.505200000014</v>
+      </c>
+      <c r="D29">
+        <v>1612</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>94116.62000000001</v>
       </c>
       <c r="F29">
-        <v>504.58</v>
+        <v>-34.480000000000018</v>
       </c>
       <c r="G29">
-        <v>29459.903300000002</v>
+        <v>-2013.1147999999957</v>
       </c>
       <c r="H29">
-        <v>838.8</v>
+        <v>2597.7600000000002</v>
       </c>
       <c r="I29">
-        <v>48973.338000000003</v>
+        <v>151670.21760000003</v>
+      </c>
+      <c r="J29">
+        <v>2330</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>136037.05000000002</v>
       </c>
       <c r="L29">
-        <v>838.8</v>
+        <v>267.76000000000022</v>
       </c>
       <c r="M29">
-        <v>48973.338000000003</v>
+        <v>15633.167600000015</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>1577.52</v>
+        <v>1088.4000000000001</v>
       </c>
       <c r="C30">
-        <v>92103.505200000014</v>
+        <v>63546.234000000011</v>
+      </c>
+      <c r="D30">
+        <v>1264</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>73798.64</v>
       </c>
       <c r="F30">
-        <v>1577.52</v>
+        <v>-175.59999999999991</v>
       </c>
       <c r="G30">
-        <v>92103.505200000014</v>
+        <v>-10252.405999999988</v>
       </c>
       <c r="H30">
-        <v>2597.7600000000002</v>
+        <v>1338.09</v>
       </c>
       <c r="I30">
-        <v>151670.21760000003</v>
+        <v>78124.384650000007</v>
+      </c>
+      <c r="J30">
+        <v>1144</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>66792.44</v>
       </c>
       <c r="L30">
-        <v>2597.7600000000002</v>
+        <v>194.08999999999992</v>
       </c>
       <c r="M30">
-        <v>151670.21760000003</v>
+        <v>11331.944650000005</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>1088.4000000000001</v>
+        <v>2070</v>
       </c>
       <c r="C31">
-        <v>63546.234000000011</v>
+        <v>120856.95000000001</v>
+      </c>
+      <c r="D31">
+        <v>1540</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>89912.900000000009</v>
       </c>
       <c r="F31">
-        <v>1088.4000000000001</v>
+        <v>530</v>
       </c>
       <c r="G31">
-        <v>63546.234000000011</v>
+        <v>30944.050000000003</v>
       </c>
       <c r="H31">
-        <v>1338.09</v>
+        <v>2311.71</v>
       </c>
       <c r="I31">
-        <v>78124.384650000007</v>
+        <v>134969.18835000001</v>
+      </c>
+      <c r="J31">
+        <v>1702</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>99371.27</v>
       </c>
       <c r="L31">
-        <v>1338.09</v>
+        <v>609.71</v>
       </c>
       <c r="M31">
-        <v>78124.384650000007</v>
+        <v>35597.918350000007</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>2070</v>
+        <v>1480.03</v>
       </c>
       <c r="C32">
-        <v>120856.95000000001</v>
+        <v>86411.551550000004</v>
+      </c>
+      <c r="D32">
+        <v>1486</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>86760.11</v>
       </c>
       <c r="F32">
-        <v>2070</v>
+        <v>-5.9700000000000273</v>
       </c>
       <c r="G32">
-        <v>120856.95000000001</v>
+        <v>-348.55844999999681</v>
       </c>
       <c r="H32">
-        <v>2311.71</v>
+        <v>2185.92</v>
       </c>
       <c r="I32">
-        <v>134969.18835000001</v>
+        <v>127624.93920000002</v>
+      </c>
+      <c r="J32">
+        <v>2186</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>127629.61000000002</v>
       </c>
       <c r="L32">
-        <v>2311.71</v>
+        <v>-7.999999999992724E-2</v>
       </c>
       <c r="M32">
-        <v>134969.18835000001</v>
+        <v>-4.670799999992596</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>1480.03</v>
+        <v>1720.8</v>
       </c>
       <c r="C33">
-        <v>86411.551550000004</v>
+        <v>100468.90800000001</v>
+      </c>
+      <c r="D33">
+        <v>1996</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>116536.46</v>
       </c>
       <c r="F33">
-        <v>1480.03</v>
+        <v>-275.20000000000005</v>
       </c>
       <c r="G33">
-        <v>86411.551550000004</v>
+        <v>-16067.551999999996</v>
       </c>
       <c r="H33">
-        <v>2185.92</v>
+        <v>2422.4699999999998</v>
       </c>
       <c r="I33">
-        <v>127624.93920000002</v>
+        <v>141435.91094999999</v>
+      </c>
+      <c r="J33">
+        <v>816</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>47642.16</v>
       </c>
       <c r="L33">
-        <v>2185.92</v>
+        <v>1606.4699999999998</v>
       </c>
       <c r="M33">
-        <v>127624.93920000002</v>
+        <v>93793.750949999987</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>1720.8</v>
+        <v>15460.75</v>
       </c>
       <c r="C34">
-        <v>100468.90800000001</v>
+        <v>902675.88875000004</v>
+      </c>
+      <c r="D34">
+        <v>15192</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>886984.92</v>
       </c>
       <c r="F34">
-        <v>1720.8</v>
+        <v>268.75</v>
       </c>
       <c r="G34">
-        <v>100468.90800000001</v>
+        <v>15690.96875</v>
       </c>
       <c r="H34">
-        <v>2422.4699999999998</v>
+        <v>20461.48</v>
       </c>
       <c r="I34">
-        <v>141435.91094999999</v>
+        <v>1194643.5098000001</v>
+      </c>
+      <c r="J34">
+        <v>17784</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1038318.8400000001</v>
       </c>
       <c r="L34">
-        <v>2422.4699999999998</v>
+        <v>2677.4799999999996</v>
       </c>
       <c r="M34">
-        <v>141435.91094999999</v>
+        <v>156324.66980000003</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>15460.75</v>
+        <v>5830.4</v>
       </c>
       <c r="C35">
-        <v>902675.88875000004</v>
+        <v>340407.90399999998</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>15460.75</v>
+        <v>5830.4</v>
       </c>
       <c r="G35">
-        <v>902675.88875000004</v>
+        <v>340407.90399999998</v>
       </c>
       <c r="H35">
-        <v>20461.48</v>
+        <v>15145.2</v>
       </c>
       <c r="I35">
-        <v>1194643.5098000001</v>
+        <v>884252.50200000009</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>20461.48</v>
+        <v>15145.2</v>
       </c>
       <c r="M35">
-        <v>1194643.5098000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>5830.4</v>
-      </c>
-      <c r="C36">
-        <v>340407.90399999998</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>5830.4</v>
-      </c>
-      <c r="G36">
-        <v>340407.90399999998</v>
-      </c>
-      <c r="H36">
-        <v>15145.2</v>
-      </c>
-      <c r="I36">
-        <v>884252.50200000009</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>15145.2</v>
-      </c>
-      <c r="M36">
         <v>884252.50200000009</v>
       </c>
     </row>
